--- a/WIP/files/Q08.xlsx
+++ b/WIP/files/Q08.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD979FF-D5A6-4F95-B764-3C286A9ACC03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE63BE4-C43C-4E7F-8DC4-C0498D86EEC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="2">
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,24 +37,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,10 +57,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,9 +341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -878,9 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD63048A-25C0-4E5F-A355-0CDEE19A34F3}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1393,9 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C966AE-CB77-4091-AA1E-BD67FE6D161D}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1906,513 +1879,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CC5BCB-E269-4402-8BB4-85743281AFDA}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WIP/files/Q08.xlsx
+++ b/WIP/files/Q08.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815E20E-DFBF-49F2-A95E-C0A3D545200E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9274A134-865A-4781-A95A-F28FC6E48D56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,12 +44,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,8 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,14 +360,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -354,42 +391,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD63048A-25C0-4E5F-A355-0CDEE19A34F3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C966AE-CB77-4091-AA1E-BD67FE6D161D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CC5BCB-E269-4402-8BB4-85743281AFDA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>